--- a/pred_ohlcv/54_21/2019-10-19 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 FNB ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-12210.98773739233</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-12210.98773739233</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>725.3146626076677</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>705.3146626076677</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>38771.32786260766</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>76145.01826260766</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>76145.01826260766</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>76145.01826260766</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>74990.42856260766</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>75002.42856260766</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>74875.18276260766</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>100626.4702626076</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>125079.1373626076</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>183671.8903626076</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>213017.2798626076</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>274760.0868782758</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>809205.7045782759</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>809292.6915782759</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>775737.1538782759</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>775705.3047782759</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>765663.2690782759</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>764595.7315782759</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>805873.639578276</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>787489.0080782759</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>787489.0080782759</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>816563.0305782759</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>814696.6720782759</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>815202.7546782759</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>758310.6945782759</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>770333.8302782759</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>770333.8302782759</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>770333.8302782759</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>802252.6176785568</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>802020.7354785568</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>802020.7354785568</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>801590.0422785569</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>851604.4200785569</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>853341.5123785569</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>853341.5123785569</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>851080.8352785569</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>849496.5685785569</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>848374.2843785569</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>848374.2843785569</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>847372.8355785569</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>847372.8355785569</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>818487.7161785569</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>882083.9322785569</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>880979.6651785568</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>863037.1462785568</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>862390.9242785568</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>763962.1753636037</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>527646.8822567882</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>527632.6502567882</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>528592.8388567882</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>528581.4389567883</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>528581.4389567883</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-514076.692440521</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-514076.692440521</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-552496.910340521</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-552496.910340521</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-465607.5396237746</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-526145.4057237747</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-486925.4679237747</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-486925.4679237747</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 FNB ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-12210.98773739233</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-12210.98773739233</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>725.3146626076677</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>705.3146626076677</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>38771.32786260766</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>76145.01826260766</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>76145.01826260766</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>76145.01826260766</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>74990.42856260766</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>75002.42856260766</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>74875.18276260766</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>100626.4702626076</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>125079.1373626076</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>183671.8903626076</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>213017.2798626076</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>274760.0868782758</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>810421.0501782759</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>809205.7045782759</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>809292.6915782759</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>775737.1538782759</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>775705.3047782759</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>775890.8253782759</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>761663.2690782759</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>765663.2690782759</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>764595.7315782759</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>805873.639578276</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>787489.0080782759</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>787489.0080782759</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>816563.0305782759</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>814696.6720782759</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>815202.7546782759</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>766718.8372782759</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>758310.6945782759</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>770333.8302782759</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>770333.8302782759</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>770333.8302782759</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>802252.6176785568</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>802020.7354785568</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>802020.7354785568</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>801590.0422785569</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>851604.4200785569</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>853341.5123785569</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>853341.5123785569</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>851080.8352785569</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>849496.5685785569</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>848374.2843785569</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>848374.2843785569</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>847372.8355785569</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>763962.1753636037</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>527646.8822567882</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>527632.6502567882</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>528592.8388567882</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>528581.4389567883</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>528581.4389567883</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-514076.692440521</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-514076.692440521</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-552496.910340521</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-552496.910340521</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-552496.910340521</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-552466.910340521</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-432464.1006237746</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-465607.5396237746</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-526145.4057237747</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-486925.4679237747</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-486925.4679237747</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
